--- a/docs/isa.xlsx
+++ b/docs/isa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gille\IdeaProjects\Assembler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA48A8A-7503-434D-B4E6-EA433E086533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22368204-C1C2-4B96-9AA7-B5A570FFE745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
